--- a/Take Home/Tables/1_MSPE All Criteria_a110.95_T100.xlsx
+++ b/Take Home/Tables/1_MSPE All Criteria_a110.95_T100.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.0994</v>
+        <v>2.1178</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1106</v>
+        <v>2.2545</v>
       </c>
       <c r="D2" t="n">
-        <v>2.314</v>
+        <v>2.3613</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.0979</v>
+        <v>2.1174</v>
       </c>
       <c r="C3" t="n">
-        <v>2.109</v>
+        <v>2.2529</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3133</v>
+        <v>2.3607</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.0763</v>
+        <v>2.0836</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0879</v>
+        <v>2.2337</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3005</v>
+        <v>2.3384</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.0782</v>
+        <v>2.091</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0914</v>
+        <v>2.2351</v>
       </c>
       <c r="D5" t="n">
-        <v>2.3031</v>
+        <v>2.3358</v>
       </c>
     </row>
   </sheetData>
